--- a/RecsApp/docs/Списки заведений, типов, категорий.xlsx
+++ b/RecsApp/docs/Списки заведений, типов, категорий.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Заведения" sheetId="1" r:id="rId1"/>
@@ -1111,16 +1111,16 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="56.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
   </cols>
@@ -29878,7 +29878,7 @@
   </sheetPr>
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/RecsApp/docs/Списки заведений, типов, категорий.xlsx
+++ b/RecsApp/docs/Списки заведений, типов, категорий.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="431">
   <si>
     <t>Название</t>
   </si>
@@ -256,7 +256,7 @@
     <t>Кофейня Coffee Dream — это место, где можно насладиться хорошим кофе в уютной атмосфере. Здесь приятно отдохнуть, поработать или встретиться с друзьями. В меню представлены разнообразные завтраки, сеты с лососем и авокадо, роллы с курицей и кониной, свекольный хумус, гречишный чай и другие блюда. Интерьер кофейни выполнен в современном стиле с использованием бетона, дерева и ламп.</t>
   </si>
   <si>
-    <t>С семьей; С друзьями;Праздник;Просто посидеть;Деловая встреча;Одному</t>
+    <t>С семьей;С друзьями;Праздник;Просто посидеть;Деловая встреча;Одному</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -561,7 +561,7 @@
     <t>Ресторан «Гивико» — это место, где вы можете насладиться вкусной грузинской кухней и аутентичной атмосферой. Здесь вы найдете широкий выбор блюд, включая хачапури, хинкали, чанахи и многое другое. Кроме того, в ресторане есть открытая кухня, где вы можете наблюдать за приготовлением блюд.</t>
   </si>
   <si>
-    <t>с друзьями;праздник;С коллегами;С семьей;Просто посидеть</t>
+    <t>С друзьями;Праздник;С коллегами;С семьей;Просто посидеть</t>
   </si>
   <si>
     <t>просп. Ямашева, 33</t>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>Ресторан «Каспийка» расположен на берегу озера Кабан, что делает его идеальным местом для романтических ужинов и встреч с друзьями. Интерьер ресторана выполнен в морском стиле, с использованием светлых тонов и деревянных элементов, что создает атмосферу расслабления и уюта. В меню представлены разнообразные блюда из рыбы и морепродуктов, такие как стейк из тунца, запеченный сибас, краб-дог и другие. Кроме того, ресторан предлагает бизнес-ланчи и доставку готовых блюд на дом.</t>
-  </si>
-  <si>
-    <t>с семьей;с друзьями;просто посидеть;одному;праздник</t>
   </si>
   <si>
     <t>ул. Хади Такташа, 35</t>
@@ -1669,7 +1666,7 @@
     <col customWidth="1" min="1" max="1" width="20.88"/>
     <col customWidth="1" min="2" max="2" width="56.5"/>
     <col customWidth="1" min="3" max="3" width="19.88"/>
-    <col customWidth="1" min="4" max="4" width="19.25"/>
+    <col customWidth="1" min="4" max="4" width="36.25"/>
     <col customWidth="1" min="5" max="5" width="38.5"/>
     <col customWidth="1" min="7" max="7" width="43.0"/>
     <col customWidth="1" min="8" max="8" width="28.13"/>
@@ -2889,28 +2886,28 @@
         <v>107</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="J25" s="5">
         <v>1500.0</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -2930,37 +2927,37 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="J26" s="5">
         <v>1000.0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -2980,37 +2977,37 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="J27" s="5">
         <v>3000.0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3030,28 +3027,28 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>40</v>
@@ -3060,7 +3057,7 @@
         <v>4300.0</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3080,37 +3077,37 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="J29" s="5">
         <v>2500.0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3130,37 +3127,37 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="J30" s="5">
         <v>3500.0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -3180,37 +3177,37 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="J31" s="5">
         <v>1200.0</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -3230,37 +3227,37 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="J32" s="5">
         <v>1400.0</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -3280,28 +3277,28 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>112</v>
@@ -3310,7 +3307,7 @@
         <v>1300.0</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -3330,28 +3327,28 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>40</v>
@@ -3360,7 +3357,7 @@
         <v>3700.0</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -3380,37 +3377,37 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H35" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="J35" s="5">
         <v>4000.0</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -3430,37 +3427,37 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="I36" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J36" s="5">
         <v>1300.0</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -3480,37 +3477,37 @@
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="E37" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="I37" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J37" s="5">
         <v>1000.0</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
@@ -3530,37 +3527,37 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="I38" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="J38" s="5">
         <v>1200.0</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
@@ -3580,37 +3577,37 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="I39" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J39" s="5">
         <v>1600.0</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -3630,37 +3627,37 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="J40" s="5">
         <v>1300.0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -3680,37 +3677,37 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="I41" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J41" s="5">
         <v>1400.0</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
@@ -3730,37 +3727,37 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="E42" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="J42" s="5">
         <v>1700.0</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
@@ -3780,28 +3777,28 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="E43" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>40</v>
@@ -3810,7 +3807,7 @@
         <v>1700.0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -3830,37 +3827,37 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>327</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="I44" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J44" s="5">
         <v>1700.0</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -3880,37 +3877,37 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G45" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="J45" s="5">
         <v>999.0</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -3930,28 +3927,28 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>19</v>
@@ -3960,7 +3957,7 @@
         <v>700.0</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -3980,37 +3977,37 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="H47" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="J47" s="5">
         <v>1600.0</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -4030,28 +4027,28 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>40</v>
@@ -4060,7 +4057,7 @@
         <v>1000.0</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -4080,37 +4077,37 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="J49" s="5">
         <v>2000.0</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4130,37 +4127,37 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="E50" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="F50" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="H50" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="J50" s="5">
         <v>1100.0</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4180,37 +4177,37 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G51" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="I51" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="J51" s="5">
         <v>600.0</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -30869,7 +30866,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -30901,7 +30898,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
@@ -30909,15 +30906,15 @@
         <v>107</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -30944,7 +30941,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -30973,66 +30970,66 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>395</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -31059,7 +31056,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -31088,50 +31085,50 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="8">
@@ -31139,7 +31136,7 @@
         <v>182</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9">
@@ -31147,7 +31144,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10">
@@ -31155,47 +31152,47 @@
         <v>40</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>415</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>419</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>423</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -31219,10 +31216,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -31251,26 +31248,26 @@
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>426</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>
